--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 4/Tab dim Movimento Financeiro.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 4/Tab dim Movimento Financeiro.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\Aula 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="742" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,27 @@
     <definedName name="feriados" localSheetId="3">#REF!</definedName>
     <definedName name="feriados" localSheetId="4">#REF!</definedName>
     <definedName name="feriados">#REF!</definedName>
+    <definedName name="SegmentaçãodeDados_Projeto">#N/A</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId6"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -191,13 +205,29 @@
   <si>
     <t>Conta Contabil</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Valor</t>
+  </si>
+  <si>
+    <t>Soma de Despesa/Receita</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -401,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,6 +463,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -451,20 +486,2034 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tab dim Movimento Financeiro.xlsx]Exercicio 1!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exercicio 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exercicio 1'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Contas A Pagar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compras À Vista</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pagamento De Empréstimos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Despesas Gerais De Administração</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Empréstimos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Contas A Receber</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dinheiro Dos Sócios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercicio 1'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2230000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-774000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-617000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-396800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1380000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7149000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10290000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C345-474A-8F4A-1603E7B59E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="387614344"/>
+        <c:axId val="387615328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387614344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387615328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387615328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387614344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tab dim Movimento Financeiro.xlsx]Exercicio 2!Tabela dinâmica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exercicio 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-877E-44D4-928A-765234276EF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-877E-44D4-928A-765234276EF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exercicio 2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Entrada</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Saída</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exercicio 2'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18819000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4017800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-877E-44D4-928A-765234276EF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="428621320"/>
+        <c:axId val="428619024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428621320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428619024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428619024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428621320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>468951</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>62469</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302264</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>791070</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62469</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302914</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -479,8 +2528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8114928" y="1300719"/>
-          <a:ext cx="4244687" cy="1333500"/>
+          <a:off x="13030045" y="1181657"/>
+          <a:ext cx="4251182" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,6 +2602,1160 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ACB4F7-EEF0-4FD9-B27C-B1C668C09618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0943FFA0-3829-4959-8552-6ABB85D18B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Projeto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C9AC89-BEE5-499B-9EC4-7C8BF99F158D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Projeto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1162050"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Marcio Rosa" refreshedDate="42937.809176157411" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="53">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:H56" sheet="Dados"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-01-05T00:00:00" maxDate="2016-12-24T00:00:00"/>
+    </cacheField>
+    <cacheField name="Projeto" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Mineradora Crescente"/>
+        <s v="Gasoduto Oeste"/>
+        <s v="Siderúrgica Horizonte"/>
+        <s v="Fertilizantes Clima"/>
+        <s v="Água Preta Telecomunicações"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="25">
+        <s v="Empréstimo Banco Verde"/>
+        <s v="Investimento - captação em Bolsa"/>
+        <s v="Compra de Retroescavadeira"/>
+        <s v="Subscrição de ações"/>
+        <s v="Venda de ações"/>
+        <s v="Empréstimo Banco Amarelo"/>
+        <s v="Recebimento Clientes - outubro"/>
+        <s v="Pagamento Fornecedores - outubro"/>
+        <s v="Captação de recursos - subscrição de ações"/>
+        <s v="Recebimento Clientes - novembro"/>
+        <s v="Pagamento Banco Vermelho"/>
+        <s v="Material de escritório"/>
+        <s v="Pagamento Banco Amarelo"/>
+        <s v="Recebimento duplicatas - dezembro"/>
+        <s v="Duplicatas - dezembro"/>
+        <s v="Água, Luz, Telefone e outros"/>
+        <s v="Emprestimo Banco Amarelo"/>
+        <s v="Duplicatas"/>
+        <s v="Fornecedores - vários"/>
+        <s v="Pagamento Empréstimo Banco Amarelo"/>
+        <s v="Reposição de estoque - vários itens"/>
+        <s v="Duplicatas - maio"/>
+        <s v="Mantas"/>
+        <s v="Silos"/>
+        <s v="Materiais diversos"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Conta Contabil" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Empréstimos"/>
+        <s v="Dinheiro Dos Sócios"/>
+        <s v="Compras À Vista"/>
+        <s v="Contas A Receber"/>
+        <s v="Contas A Pagar"/>
+        <s v="Pagamento De Empréstimos"/>
+        <s v="Despesas Gerais De Administração"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="E/S" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Entrada"/>
+        <s v="Saída"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Despesa/Receita" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-300000" maxValue="4300000"/>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5600" maxValue="4300000"/>
+    </cacheField>
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Santa Catarina"/>
+        <s v="Rio de Janeiro"/>
+        <s v="Minas Gerais"/>
+        <s v="São Paulo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+  <r>
+    <d v="2016-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="380000"/>
+    <n v="380000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-10-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1200000"/>
+    <n v="1200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-10-04T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-300000"/>
+    <n v="300000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-10-04T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3000000"/>
+    <n v="3000000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-10-05T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4300000"/>
+    <n v="4300000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-10-06T00:00:00"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="600000"/>
+    <n v="600000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-10-15T00:00:00"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="326000"/>
+    <n v="326000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-10-20T00:00:00"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-213000"/>
+    <n v="213000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-10-25T00:00:00"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="900000"/>
+    <n v="900000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-10-29T00:00:00"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-98000"/>
+    <n v="98000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-11-04T00:00:00"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="313000"/>
+    <n v="313000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-11-09T00:00:00"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-125000"/>
+    <n v="125000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-11-17T00:00:00"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="-7200"/>
+    <n v="7200"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-12-01T00:00:00"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-40000"/>
+    <n v="40000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-12-03T00:00:00"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="178000"/>
+    <n v="178000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-12-10T00:00:00"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="380000"/>
+    <n v="380000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-12-20T00:00:00"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="-53000"/>
+    <n v="53000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-12-23T00:00:00"/>
+    <x v="4"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="400000"/>
+    <n v="400000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-01-05T00:00:00"/>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="230000"/>
+    <n v="230000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-01-07T00:00:00"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-178000"/>
+    <n v="178000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-01-10T00:00:00"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="300000"/>
+    <n v="300000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-01-10T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="400000"/>
+    <n v="400000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-01-18T00:00:00"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-123000"/>
+    <n v="123000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-01-20T00:00:00"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="450000"/>
+    <n v="450000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-02-04T00:00:00"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-230000"/>
+    <n v="230000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-02-08T00:00:00"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="670000"/>
+    <n v="670000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-02-15T00:00:00"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-230000"/>
+    <n v="230000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-02-21T00:00:00"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="-5600"/>
+    <n v="5600"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-03-10T00:00:00"/>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-111000"/>
+    <n v="111000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-03-15T00:00:00"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-211000"/>
+    <n v="211000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-03-21T00:00:00"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="890000"/>
+    <n v="890000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-03-25T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="390000"/>
+    <n v="390000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-03-25T00:00:00"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-120000"/>
+    <n v="120000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-03-25T00:00:00"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="430000"/>
+    <n v="430000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-04-01T00:00:00"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="-210000"/>
+    <n v="210000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-04-05T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="410000"/>
+    <n v="410000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-04-05T00:00:00"/>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="380000"/>
+    <n v="380000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-04-06T00:00:00"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-111000"/>
+    <n v="111000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-04-08T00:00:00"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-135000"/>
+    <n v="135000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-04-11T00:00:00"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-129000"/>
+    <n v="129000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-05-03T00:00:00"/>
+    <x v="4"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="382000"/>
+    <n v="382000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-05-05T00:00:00"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-200000"/>
+    <n v="200000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-05-05T00:00:00"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-185000"/>
+    <n v="185000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-05-10T00:00:00"/>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="560000"/>
+    <n v="560000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-05-10T00:00:00"/>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-78000"/>
+    <n v="78000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="590000"/>
+    <n v="590000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2016-05-20T00:00:00"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="760000"/>
+    <n v="760000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-05-20T00:00:00"/>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-210000"/>
+    <n v="210000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-05-20T00:00:00"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-133000"/>
+    <n v="133000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-05-30T00:00:00"/>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="-231000"/>
+    <n v="231000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2016-05-30T00:00:00"/>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="-121000"/>
+    <n v="121000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2016-06-10T00:00:00"/>
+    <x v="3"/>
+    <x v="19"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-113000"/>
+    <n v="113000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2016-06-10T00:00:00"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="-117000"/>
+    <n v="117000"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="26">
+        <item x="15"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="44" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Despesa/Receita" fld="5" baseField="3" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="4" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="4" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="4" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="SegmentaçãodeDados_Projeto" sourceName="Projeto">
+  <pivotTables>
+    <pivotTable tabId="8" name="Tabela dinâmica4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="5">
+        <i x="4" s="1"/>
+        <i x="3"/>
+        <i x="1"/>
+        <i x="0"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Projeto" cache="SegmentaçãodeDados_Projeto" caption="Projeto" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,13 +4081,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" topLeftCell="G4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
@@ -2383,48 +5586,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="21">
+        <v>-2230000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="21">
+        <v>-774000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="21">
+        <v>-617000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="21">
+        <v>-396800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1380000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="21">
+        <v>7149000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="21">
+        <v>10290000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="21">
+        <v>14801200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21">
+        <v>18819000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21">
+        <v>4017800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="21">
+        <v>22836800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="21">
+        <v>6440000</v>
+      </c>
+      <c r="C3" s="21">
+        <v>929200</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7369200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="21">
+        <v>6906000</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1571000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>8477000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="21">
+        <v>3363000</v>
+      </c>
+      <c r="C5" s="21">
+        <v>730000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4093000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2110000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>787600</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2897600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="21">
+        <v>18819000</v>
+      </c>
+      <c r="C7" s="21">
+        <v>4017800</v>
+      </c>
+      <c r="D7" s="21">
+        <v>22836800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>821000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="21">
+        <v>821000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>